--- a/data/Cytocon_cells/20200614_02-27-27_Macrophages_modified.xlsx
+++ b/data/Cytocon_cells/20200614_02-27-27_Macrophages_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oleg\COVID19\covid19-qsp-model\data\Cytocon_cells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46703D-52BD-4DCB-AAAC-002CEA91DB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52978A26-F1E4-4234-9BD1-DDABC8BD080B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="205">
   <si>
     <t>Species name</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>absolute concentration was calculated on the basis of formula C(kcell/L) = (n(items per mm2))^1.5*1000/0.4 ; here 0.4 is portion of IS volume in alveoli tissue volume</t>
+  </si>
+  <si>
+    <t>M2 tot alveoli</t>
   </si>
 </sst>
 </file>
@@ -1536,10 +1539,10 @@
   <dimension ref="A1:AI181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F188" sqref="F188"/>
+      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14813,7 +14816,7 @@
         <v>16856206.017554764</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>197</v>
